--- a/创新作品预算和材料表.xlsx
+++ b/创新作品预算和材料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Public\Desktop\caos\else\大创+挑战杯\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C326BD6C-0197-4146-B331-272770A22F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D6105-0BF3-4703-9A54-DB99BA3E7690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB0D90E8-DBCC-401D-89E6-83A6AE989716}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{EB0D90E8-DBCC-401D-89E6-83A6AE989716}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,6 +483,9 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>111</v>
+      </c>
       <c r="B7" s="1"/>
     </row>
   </sheetData>
